--- a/xlsx/小达人厂家-最新书单 7-29.xlsx
+++ b/xlsx/小达人厂家-最新书单 7-29.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="23880" windowHeight="10965" tabRatio="596"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366">
   <si>
     <t>品类</t>
   </si>
@@ -5188,9 +5188,6 @@
   </si>
   <si>
     <t>活动期间7.25-26</t>
-  </si>
-  <si>
-    <t>产品信息</t>
   </si>
   <si>
     <t>团购价格89元，电商标价128元</t>
@@ -11184,7 +11181,7 @@
   <dimension ref="A1:R1048550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -26120,19 +26117,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:R3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="18" max="18" width="22.125" customWidth="1"/>
+    <col min="16" max="16" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="73" customHeight="1" spans="1:18">
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="73" customHeight="1" spans="1:16">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -26140,108 +26148,102 @@
         <v>291</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="16"/>
+        <v>292</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>615</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>615</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="G2" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>1357</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>1358</v>
       </c>
-      <c r="L2" s="11">
+      <c r="J2" s="11">
         <v>9787539167138</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="73" customHeight="1" spans="1:18">
+    <row r="3" s="2" customFormat="1" ht="73" customHeight="1" spans="1:16">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="6">
+      <c r="C3" s="6">
         <v>299</v>
       </c>
-      <c r="F3" s="33">
+      <c r="D3" s="33">
         <v>80</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="G3" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>1361</v>
       </c>
+      <c r="J3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="L3" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>1362</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="https://open.work.weixin.qq.com/wwopen/mpnews?mixuin=I5wpDAAABwC68ZjKAAAUAA&amp;mfid=WW0304-WelUXgAABwBpfW2a2B2zwQGsrV_2b&amp;idx=0&amp;sn=a4f96c9a06b69641aab7537a50912234"/>
-    <hyperlink ref="Q3" r:id="rId2" display="https://open.work.weixin.qq.com/wwopen/mpnews?mixuin=I5wpDAAABwC68ZjKAAAUAA&amp;mfid=WW0322-AuZV8gAABwAycmw2mjr4ag3Nyqd33&amp;idx=0&amp;sn=c59c275474961bceaefbbbe70e6e20ed&amp;pass_ticket=eZHj1XK11uZ8qx3i0WX4KcASUdSbWsRZ5FkUBvhTc%2Fwu8bLAhLF03PnUVQYkMEVN"/>
+    <hyperlink ref="O2" r:id="rId1" display="https://open.work.weixin.qq.com/wwopen/mpnews?mixuin=I5wpDAAABwC68ZjKAAAUAA&amp;mfid=WW0304-WelUXgAABwBpfW2a2B2zwQGsrV_2b&amp;idx=0&amp;sn=a4f96c9a06b69641aab7537a50912234"/>
+    <hyperlink ref="O3" r:id="rId2" display="https://open.work.weixin.qq.com/wwopen/mpnews?mixuin=I5wpDAAABwC68ZjKAAAUAA&amp;mfid=WW0322-AuZV8gAABwAycmw2mjr4ag3Nyqd33&amp;idx=0&amp;sn=c59c275474961bceaefbbbe70e6e20ed&amp;pass_ticket=eZHj1XK11uZ8qx3i0WX4KcASUdSbWsRZ5FkUBvhTc%2Fwu8bLAhLF03PnUVQYkMEVN"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -26253,8 +26255,8 @@
   <sheetPr/>
   <dimension ref="A1:D1048518"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D243" sqref="A1:D243"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -26268,7 +26270,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>1363</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -26988,7 +26990,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>121</v>
@@ -27002,7 +27004,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>127</v>
@@ -27720,7 +27722,7 @@
     </row>
     <row r="106" s="2" customFormat="1" ht="65" customHeight="1" spans="1:4">
       <c r="A106" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>566</v>
@@ -27734,7 +27736,7 @@
     </row>
     <row r="107" s="2" customFormat="1" ht="65" customHeight="1" spans="1:4">
       <c r="A107" s="5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>566</v>
